--- a/src/main/resources/statistics.xlsx
+++ b/src/main/resources/statistics.xlsx
@@ -53,16 +53,16 @@
     <t>НГЛУ им.Добролюбова;Воронежский Литературно-Переводческий Университет;</t>
   </si>
   <si>
+    <t>Программиование</t>
+  </si>
+  <si>
+    <t>ННГУ им.Лобачевского;НГТУ им Р.Е. Алексеева;</t>
+  </si>
+  <si>
     <t>Педагог</t>
   </si>
   <si>
     <t>Питерский Выдуманный Педагогический Университет;Педагогический университет им.Козьмы Минина;</t>
-  </si>
-  <si>
-    <t>Программиование</t>
-  </si>
-  <si>
-    <t>ННГУ им.Лобачевского;НГТУ им Р.Е. Алексеева;</t>
   </si>
 </sst>
 </file>
@@ -209,10 +209,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>4.5</v>
+        <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D6" t="n">
         <v>2.0</v>
@@ -226,10 +226,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0</v>
+        <v>4.5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D7" t="n">
         <v>2.0</v>
